--- a/Hazing Database.xlsx
+++ b/Hazing Database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26220" yWindow="460" windowWidth="37500" windowHeight="20760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="232">
   <si>
     <t>Organization</t>
   </si>
@@ -718,6 +718,36 @@
   </si>
   <si>
     <t>December</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Western Carolina University</t>
+  </si>
+  <si>
+    <t>Revocation</t>
+  </si>
+  <si>
+    <t>Alpha Sigma Alpha</t>
+  </si>
+  <si>
+    <t>Loyola University</t>
+  </si>
+  <si>
+    <t>University of Connecticut</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>York College</t>
+  </si>
+  <si>
+    <t>Theta Phi Epsilon</t>
+  </si>
+  <si>
+    <t>University of Georgia</t>
   </si>
 </sst>
 </file>
@@ -1204,11 +1234,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K335"/>
+  <dimension ref="A1:K306"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E131" sqref="E131"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A126" sqref="A126:XFD133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1396,7 +1426,7 @@
         <v>2018</v>
       </c>
       <c r="G6" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
@@ -1422,9 +1452,99 @@
         <v>61</v>
       </c>
     </row>
+    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>2017</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>2017</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>2017</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
         <v>82</v>
@@ -1453,7 +1573,7 @@
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>82</v>
@@ -1482,7 +1602,7 @@
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -1514,7 +1634,10 @@
     </row>
     <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>82</v>
@@ -1543,7 +1666,7 @@
     </row>
     <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>82</v>
@@ -1572,10 +1695,7 @@
     </row>
     <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
         <v>82</v>
@@ -1604,10 +1724,7 @@
     </row>
     <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
         <v>82</v>
@@ -1636,7 +1753,7 @@
     </row>
     <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>82</v>
@@ -1665,7 +1782,7 @@
     </row>
     <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
         <v>82</v>
@@ -1694,7 +1811,7 @@
     </row>
     <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
         <v>82</v>
@@ -1723,7 +1840,7 @@
     </row>
     <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
         <v>82</v>
@@ -1752,7 +1869,7 @@
     </row>
     <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
         <v>82</v>
@@ -1781,7 +1898,7 @@
     </row>
     <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
         <v>82</v>
@@ -1810,7 +1927,10 @@
     </row>
     <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
       </c>
       <c r="C24" t="s">
         <v>82</v>
@@ -1839,7 +1959,7 @@
     </row>
     <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
         <v>82</v>
@@ -1868,7 +1988,7 @@
     </row>
     <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
         <v>82</v>
@@ -1897,10 +2017,7 @@
     </row>
     <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
         <v>82</v>
@@ -1929,7 +2046,7 @@
     </row>
     <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
         <v>82</v>
@@ -1958,7 +2075,7 @@
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
         <v>82</v>
@@ -1987,7 +2104,10 @@
     </row>
     <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
       </c>
       <c r="C30" t="s">
         <v>82</v>
@@ -2016,7 +2136,10 @@
     </row>
     <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
       </c>
       <c r="C31" t="s">
         <v>82</v>
@@ -2045,7 +2168,10 @@
     </row>
     <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
       </c>
       <c r="C32" t="s">
         <v>82</v>
@@ -2074,7 +2200,7 @@
     </row>
     <row r="33" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
         <v>95</v>
@@ -2106,7 +2232,7 @@
     </row>
     <row r="34" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
         <v>95</v>
@@ -2138,7 +2264,7 @@
     </row>
     <row r="35" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
         <v>95</v>
@@ -2170,7 +2296,7 @@
     </row>
     <row r="36" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s">
         <v>95</v>
@@ -2202,7 +2328,7 @@
     </row>
     <row r="37" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
         <v>95</v>
@@ -2225,112 +2351,67 @@
       <c r="H37" t="s">
         <v>8</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="3" t="s">
         <v>91</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>27</v>
+    <row r="38" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38">
-        <v>2017</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
         <v>61</v>
       </c>
-      <c r="H38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J38" t="s">
-        <v>91</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39">
-        <v>2017</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>61</v>
       </c>
-      <c r="H39" t="s">
-        <v>8</v>
-      </c>
-      <c r="J39" t="s">
-        <v>91</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40">
-        <v>2017</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
         <v>61</v>
       </c>
-      <c r="H40" t="s">
-        <v>8</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>132</v>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>140</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
@@ -2347,7 +2428,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
@@ -2364,7 +2445,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
@@ -2381,7 +2462,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
@@ -2398,7 +2479,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
@@ -2415,7 +2496,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
       <c r="B46" t="s">
         <v>9</v>
@@ -2432,7 +2513,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
@@ -2449,7 +2530,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
@@ -2465,54 +2546,27 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" t="s">
-        <v>9</v>
-      </c>
       <c r="C49" t="s">
         <v>33</v>
       </c>
       <c r="D49" t="s">
         <v>31</v>
       </c>
-      <c r="G49" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>123</v>
-      </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
       <c r="C50" t="s">
         <v>33</v>
       </c>
       <c r="D50" t="s">
         <v>31</v>
       </c>
-      <c r="G50" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>145</v>
-      </c>
-      <c r="B51" t="s">
-        <v>9</v>
-      </c>
       <c r="C51" t="s">
         <v>33</v>
       </c>
       <c r="D51" t="s">
         <v>31</v>
-      </c>
-      <c r="G51" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -2524,32 +2578,95 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>172</v>
+      </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53">
+        <v>2017</v>
+      </c>
+      <c r="G53" t="s">
+        <v>61</v>
+      </c>
+      <c r="H53" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="E54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54">
+        <v>2017</v>
+      </c>
+      <c r="G54" t="s">
+        <v>61</v>
+      </c>
+      <c r="H54" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="E55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55">
+        <v>2017</v>
+      </c>
+      <c r="G55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H55" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
@@ -2578,7 +2695,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="C57" t="s">
         <v>16</v>
@@ -2607,7 +2724,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="C58" t="s">
         <v>16</v>
@@ -2636,7 +2753,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C59" t="s">
         <v>16</v>
@@ -2665,7 +2782,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C60" t="s">
         <v>16</v>
@@ -2674,7 +2791,7 @@
         <v>17</v>
       </c>
       <c r="E60" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="F60">
         <v>2017</v>
@@ -2694,7 +2811,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="C61" t="s">
         <v>16</v>
@@ -2723,7 +2840,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C62" t="s">
         <v>16</v>
@@ -2752,7 +2869,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C63" t="s">
         <v>16</v>
@@ -2761,7 +2878,7 @@
         <v>17</v>
       </c>
       <c r="E63" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="F63">
         <v>2017</v>
@@ -2781,7 +2898,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="C64" t="s">
         <v>16</v>
@@ -2810,7 +2927,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
         <v>16</v>
@@ -2839,7 +2956,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="C66" t="s">
         <v>16</v>
@@ -2868,7 +2985,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="C67" t="s">
         <v>16</v>
@@ -2897,7 +3014,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C68" t="s">
         <v>16</v>
@@ -2926,7 +3043,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="C69" t="s">
         <v>16</v>
@@ -2955,7 +3072,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="C70" t="s">
         <v>16</v>
@@ -2984,7 +3101,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C71" t="s">
         <v>16</v>
@@ -3013,7 +3130,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
         <v>16</v>
@@ -3042,7 +3159,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C73" t="s">
         <v>16</v>
@@ -3071,7 +3188,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="C74" t="s">
         <v>16</v>
@@ -3100,7 +3217,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>95</v>
       </c>
       <c r="C75" t="s">
         <v>16</v>
@@ -3129,7 +3249,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C76" t="s">
         <v>16</v>
@@ -3158,7 +3278,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>156</v>
+        <v>26</v>
+      </c>
+      <c r="B77" t="s">
+        <v>95</v>
       </c>
       <c r="C77" t="s">
         <v>16</v>
@@ -3187,10 +3310,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>10</v>
-      </c>
-      <c r="B78" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="C78" t="s">
         <v>16</v>
@@ -3219,7 +3339,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C79" t="s">
         <v>16</v>
@@ -3248,10 +3368,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>26</v>
-      </c>
-      <c r="B80" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
         <v>16</v>
@@ -3280,7 +3397,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="C81" t="s">
         <v>16</v>
@@ -3309,7 +3426,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="C82" t="s">
         <v>16</v>
@@ -3338,7 +3455,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="C83" t="s">
         <v>16</v>
@@ -3367,7 +3484,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="C84" t="s">
         <v>16</v>
@@ -3396,7 +3513,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C85" t="s">
         <v>16</v>
@@ -3425,7 +3542,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C86" t="s">
         <v>16</v>
@@ -3454,7 +3571,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>161</v>
+        <v>57</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
       </c>
       <c r="C87" t="s">
         <v>16</v>
@@ -3483,7 +3603,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>110</v>
+        <v>74</v>
+      </c>
+      <c r="B88" t="s">
+        <v>95</v>
       </c>
       <c r="C88" t="s">
         <v>16</v>
@@ -3512,7 +3635,10 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>162</v>
+        <v>20</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
       </c>
       <c r="C89" t="s">
         <v>16</v>
@@ -3541,7 +3667,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="B90" t="s">
         <v>9</v>
@@ -3573,7 +3699,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B91" t="s">
         <v>95</v>
@@ -3605,7 +3731,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="B92" t="s">
         <v>9</v>
@@ -3637,10 +3763,10 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
         <v>16</v>
@@ -3669,7 +3795,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
@@ -3701,10 +3827,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>163</v>
-      </c>
-      <c r="B95" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="C95" t="s">
         <v>16</v>
@@ -3733,7 +3856,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="B96" t="s">
         <v>95</v>
@@ -3765,10 +3888,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>76</v>
-      </c>
-      <c r="B97" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C97" t="s">
         <v>16</v>
@@ -3797,7 +3917,10 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>164</v>
+        <v>166</v>
+      </c>
+      <c r="B98" t="s">
+        <v>95</v>
       </c>
       <c r="C98" t="s">
         <v>16</v>
@@ -3826,10 +3949,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>165</v>
-      </c>
-      <c r="B99" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C99" t="s">
         <v>16</v>
@@ -3858,7 +3978,10 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>70</v>
+        <v>167</v>
+      </c>
+      <c r="B100" t="s">
+        <v>95</v>
       </c>
       <c r="C100" t="s">
         <v>16</v>
@@ -3887,10 +4010,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>166</v>
-      </c>
-      <c r="B101" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="C101" t="s">
         <v>16</v>
@@ -3919,7 +4039,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="C102" t="s">
         <v>16</v>
@@ -3948,10 +4068,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>167</v>
-      </c>
-      <c r="B103" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="C103" t="s">
         <v>16</v>
@@ -3979,90 +4096,27 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>71</v>
-      </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D104" t="s">
-        <v>17</v>
-      </c>
-      <c r="E104" t="s">
-        <v>18</v>
-      </c>
-      <c r="F104">
-        <v>2017</v>
-      </c>
-      <c r="G104" t="s">
-        <v>61</v>
-      </c>
-      <c r="H104" t="s">
-        <v>8</v>
-      </c>
-      <c r="I104">
-        <v>5</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>168</v>
-      </c>
       <c r="C105" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
-      </c>
-      <c r="E105" t="s">
-        <v>18</v>
-      </c>
-      <c r="F105">
-        <v>2017</v>
-      </c>
-      <c r="G105" t="s">
-        <v>61</v>
-      </c>
-      <c r="H105" t="s">
-        <v>8</v>
-      </c>
-      <c r="I105">
-        <v>5</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>169</v>
-      </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D106" t="s">
-        <v>17</v>
-      </c>
-      <c r="E106" t="s">
-        <v>18</v>
-      </c>
-      <c r="F106">
-        <v>2017</v>
-      </c>
-      <c r="G106" t="s">
-        <v>61</v>
-      </c>
-      <c r="H106" t="s">
-        <v>8</v>
-      </c>
-      <c r="I106">
-        <v>5</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
@@ -4074,16 +4128,40 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>216</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D108" t="s">
         <v>35</v>
       </c>
+      <c r="E108" t="s">
+        <v>62</v>
+      </c>
+      <c r="F108">
+        <v>2018</v>
+      </c>
+      <c r="G108" t="s">
+        <v>7</v>
+      </c>
+      <c r="H108" t="s">
+        <v>99</v>
+      </c>
+      <c r="I108">
+        <v>24</v>
+      </c>
+      <c r="J108" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D109" t="s">
         <v>35</v>
@@ -4091,286 +4169,382 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D110" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>216</v>
-      </c>
-      <c r="B111" t="s">
-        <v>9</v>
-      </c>
       <c r="C111" t="s">
         <v>36</v>
       </c>
       <c r="D111" t="s">
         <v>35</v>
       </c>
-      <c r="E111" t="s">
-        <v>62</v>
-      </c>
-      <c r="F111">
-        <v>2018</v>
-      </c>
-      <c r="G111" t="s">
-        <v>7</v>
-      </c>
-      <c r="H111" t="s">
-        <v>99</v>
-      </c>
-      <c r="I111">
-        <v>24</v>
-      </c>
-      <c r="J111" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D112" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D113" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D114" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D115" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D116" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>137</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
       <c r="C117" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D117" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="E117" t="s">
+        <v>18</v>
+      </c>
+      <c r="F117">
+        <v>2017</v>
+      </c>
+      <c r="G117" t="s">
+        <v>7</v>
+      </c>
+      <c r="H117" t="s">
+        <v>96</v>
+      </c>
+      <c r="I117">
+        <v>29.5</v>
+      </c>
+      <c r="J117" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>65</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
       <c r="C118" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D118" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="E118" t="s">
+        <v>18</v>
+      </c>
+      <c r="F118">
+        <v>2017</v>
+      </c>
+      <c r="G118" t="s">
+        <v>61</v>
+      </c>
+      <c r="H118" t="s">
+        <v>8</v>
+      </c>
+      <c r="I118">
+        <v>6</v>
+      </c>
+      <c r="J118" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>87</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
       <c r="C119" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D119" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="E119" t="s">
+        <v>221</v>
+      </c>
+      <c r="F119">
+        <v>2017</v>
+      </c>
+      <c r="G119" t="s">
+        <v>61</v>
+      </c>
+      <c r="H119" t="s">
+        <v>8</v>
+      </c>
+      <c r="I119">
+        <v>5</v>
+      </c>
+      <c r="J119" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>115</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
       <c r="C120" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D120" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="E120" t="s">
+        <v>94</v>
+      </c>
+      <c r="F120">
+        <v>2017</v>
+      </c>
+      <c r="G120" t="s">
+        <v>7</v>
+      </c>
+      <c r="H120" t="s">
+        <v>96</v>
+      </c>
+      <c r="I120">
+        <v>11</v>
+      </c>
+      <c r="J120" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>104</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
       <c r="C121" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D121" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="E121" t="s">
+        <v>94</v>
+      </c>
+      <c r="F121">
+        <v>2017</v>
+      </c>
+      <c r="G121" t="s">
+        <v>7</v>
+      </c>
+      <c r="H121" t="s">
+        <v>96</v>
+      </c>
+      <c r="I121">
+        <v>63</v>
+      </c>
+      <c r="J121" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>116</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
       <c r="C122" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D122" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="E122" t="s">
+        <v>94</v>
+      </c>
+      <c r="F122">
+        <v>2017</v>
+      </c>
+      <c r="G122" t="s">
+        <v>7</v>
+      </c>
+      <c r="H122" t="s">
+        <v>96</v>
+      </c>
+      <c r="I122">
+        <v>63</v>
+      </c>
+      <c r="J122" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
       <c r="C123" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D123" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="E123" t="s">
+        <v>94</v>
+      </c>
+      <c r="F123">
+        <v>2017</v>
+      </c>
+      <c r="G123" t="s">
+        <v>7</v>
+      </c>
+      <c r="H123" t="s">
+        <v>96</v>
+      </c>
+      <c r="I123">
+        <v>51</v>
+      </c>
+      <c r="J123" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D124" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D125" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D126" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C127" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D127" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>137</v>
-      </c>
-      <c r="B128" t="s">
-        <v>9</v>
-      </c>
       <c r="C128" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D128" t="s">
-        <v>44</v>
-      </c>
-      <c r="E128" t="s">
-        <v>18</v>
-      </c>
-      <c r="F128">
-        <v>2017</v>
-      </c>
-      <c r="G128" t="s">
-        <v>7</v>
-      </c>
-      <c r="H128" t="s">
-        <v>96</v>
-      </c>
-      <c r="I128">
-        <v>29.5</v>
-      </c>
-      <c r="J128" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>65</v>
-      </c>
-      <c r="B129" t="s">
-        <v>9</v>
-      </c>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D129" t="s">
-        <v>44</v>
-      </c>
-      <c r="E129" t="s">
-        <v>18</v>
-      </c>
-      <c r="F129">
-        <v>2017</v>
-      </c>
-      <c r="G129" t="s">
-        <v>61</v>
-      </c>
-      <c r="H129" t="s">
-        <v>8</v>
-      </c>
-      <c r="I129">
-        <v>6</v>
-      </c>
-      <c r="J129" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="B130" t="s">
         <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D130" t="s">
         <v>44</v>
       </c>
       <c r="E130" t="s">
-        <v>221</v>
+        <v>93</v>
       </c>
       <c r="F130">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G130" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="H130" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="I130">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="J130" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B131" t="s">
         <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D131" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E131" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F131">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G131" t="s">
         <v>7</v>
@@ -4379,62 +4553,59 @@
         <v>96</v>
       </c>
       <c r="I131">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="J131" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="B132" t="s">
         <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D132" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E132" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F132">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G132" t="s">
         <v>7</v>
       </c>
       <c r="H132" t="s">
-        <v>96</v>
-      </c>
-      <c r="I132">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="J132" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="B133" t="s">
         <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D133" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E133" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="F133">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G133" t="s">
         <v>7</v>
@@ -4443,662 +4614,1472 @@
         <v>96</v>
       </c>
       <c r="I133">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="J133" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B134" t="s">
         <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D134" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E134" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="F134">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G134" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="H134" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="I134">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="J134" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D135" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="K135" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D136" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="K136" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D137" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="K137" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D138" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="K138" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D139" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="K139" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D140" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="K140" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D141" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="K141" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D142" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="K142" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C143" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D143" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="K143" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D144" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="K144" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C145" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D145" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="K145" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D146" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="K146" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C147" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D147" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="K147" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D148" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="K148" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D149" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="K149" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D150" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="K150" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C151" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D151" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="K151" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D152" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="K152" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C153" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D153" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="K153" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D154" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="K154" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C155" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D155" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D156" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C157" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D157" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C158" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D158" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C159" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D159" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>57</v>
+      </c>
+      <c r="B160" t="s">
+        <v>9</v>
+      </c>
       <c r="C160" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D160" t="s">
-        <v>44</v>
+        <v>98</v>
+      </c>
+      <c r="E160" t="s">
+        <v>18</v>
+      </c>
+      <c r="F160">
+        <v>2017</v>
+      </c>
+      <c r="G160" t="s">
+        <v>7</v>
+      </c>
+      <c r="H160" t="s">
+        <v>99</v>
+      </c>
+      <c r="J160" t="s">
+        <v>91</v>
+      </c>
+      <c r="K160" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B161" t="s">
         <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="D161" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="E161" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F161">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G161" t="s">
         <v>7</v>
       </c>
       <c r="H161" t="s">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="J161" t="s">
+        <v>91</v>
+      </c>
+      <c r="K161" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="B162" t="s">
         <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="D162" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="E162" t="s">
+        <v>18</v>
+      </c>
+      <c r="F162">
+        <v>2017</v>
+      </c>
+      <c r="G162" t="s">
+        <v>7</v>
+      </c>
+      <c r="H162" t="s">
+        <v>99</v>
+      </c>
+      <c r="J162" t="s">
+        <v>91</v>
+      </c>
+      <c r="K162" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>101</v>
+      </c>
+      <c r="B163" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" t="s">
+        <v>97</v>
+      </c>
+      <c r="D163" t="s">
+        <v>98</v>
+      </c>
+      <c r="E163" t="s">
+        <v>18</v>
+      </c>
+      <c r="F163">
+        <v>2017</v>
+      </c>
+      <c r="G163" t="s">
+        <v>7</v>
+      </c>
+      <c r="H163" t="s">
+        <v>99</v>
+      </c>
+      <c r="J163" t="s">
+        <v>91</v>
+      </c>
+      <c r="K163" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>102</v>
+      </c>
+      <c r="B164" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" t="s">
+        <v>97</v>
+      </c>
+      <c r="D164" t="s">
+        <v>98</v>
+      </c>
+      <c r="E164" t="s">
+        <v>18</v>
+      </c>
+      <c r="F164">
+        <v>2017</v>
+      </c>
+      <c r="G164" t="s">
+        <v>7</v>
+      </c>
+      <c r="H164" t="s">
+        <v>99</v>
+      </c>
+      <c r="J164" t="s">
+        <v>91</v>
+      </c>
+      <c r="K164" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>103</v>
+      </c>
+      <c r="B165" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" t="s">
+        <v>97</v>
+      </c>
+      <c r="D165" t="s">
+        <v>98</v>
+      </c>
+      <c r="E165" t="s">
+        <v>18</v>
+      </c>
+      <c r="F165">
+        <v>2017</v>
+      </c>
+      <c r="G165" t="s">
+        <v>7</v>
+      </c>
+      <c r="H165" t="s">
+        <v>99</v>
+      </c>
+      <c r="J165" t="s">
+        <v>91</v>
+      </c>
+      <c r="K165" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>64</v>
+      </c>
+      <c r="B166" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" t="s">
+        <v>97</v>
+      </c>
+      <c r="D166" t="s">
+        <v>98</v>
+      </c>
+      <c r="E166" t="s">
+        <v>18</v>
+      </c>
+      <c r="F166">
+        <v>2017</v>
+      </c>
+      <c r="G166" t="s">
+        <v>7</v>
+      </c>
+      <c r="H166" t="s">
+        <v>99</v>
+      </c>
+      <c r="J166" t="s">
+        <v>91</v>
+      </c>
+      <c r="K166" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>104</v>
+      </c>
+      <c r="B167" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" t="s">
+        <v>97</v>
+      </c>
+      <c r="D167" t="s">
+        <v>98</v>
+      </c>
+      <c r="E167" t="s">
+        <v>18</v>
+      </c>
+      <c r="F167">
+        <v>2017</v>
+      </c>
+      <c r="G167" t="s">
+        <v>7</v>
+      </c>
+      <c r="H167" t="s">
+        <v>99</v>
+      </c>
+      <c r="J167" t="s">
+        <v>91</v>
+      </c>
+      <c r="K167" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>105</v>
+      </c>
+      <c r="B168" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" t="s">
+        <v>97</v>
+      </c>
+      <c r="D168" t="s">
+        <v>98</v>
+      </c>
+      <c r="E168" t="s">
+        <v>18</v>
+      </c>
+      <c r="F168">
+        <v>2017</v>
+      </c>
+      <c r="G168" t="s">
+        <v>7</v>
+      </c>
+      <c r="H168" t="s">
+        <v>99</v>
+      </c>
+      <c r="J168" t="s">
+        <v>91</v>
+      </c>
+      <c r="K168" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>106</v>
+      </c>
+      <c r="B169" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" t="s">
+        <v>97</v>
+      </c>
+      <c r="D169" t="s">
+        <v>98</v>
+      </c>
+      <c r="E169" t="s">
+        <v>18</v>
+      </c>
+      <c r="F169">
+        <v>2017</v>
+      </c>
+      <c r="G169" t="s">
+        <v>7</v>
+      </c>
+      <c r="H169" t="s">
+        <v>99</v>
+      </c>
+      <c r="J169" t="s">
+        <v>91</v>
+      </c>
+      <c r="K169" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>107</v>
+      </c>
+      <c r="B170" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" t="s">
+        <v>97</v>
+      </c>
+      <c r="D170" t="s">
+        <v>98</v>
+      </c>
+      <c r="E170" t="s">
+        <v>18</v>
+      </c>
+      <c r="F170">
+        <v>2017</v>
+      </c>
+      <c r="G170" t="s">
+        <v>7</v>
+      </c>
+      <c r="H170" t="s">
+        <v>99</v>
+      </c>
+      <c r="J170" t="s">
+        <v>91</v>
+      </c>
+      <c r="K170" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>25</v>
+      </c>
+      <c r="B171" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" t="s">
+        <v>97</v>
+      </c>
+      <c r="D171" t="s">
+        <v>98</v>
+      </c>
+      <c r="E171" t="s">
+        <v>18</v>
+      </c>
+      <c r="F171">
+        <v>2017</v>
+      </c>
+      <c r="G171" t="s">
+        <v>7</v>
+      </c>
+      <c r="H171" t="s">
+        <v>99</v>
+      </c>
+      <c r="J171" t="s">
+        <v>91</v>
+      </c>
+      <c r="K171" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>108</v>
+      </c>
+      <c r="B172" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" t="s">
+        <v>97</v>
+      </c>
+      <c r="D172" t="s">
+        <v>98</v>
+      </c>
+      <c r="E172" t="s">
+        <v>18</v>
+      </c>
+      <c r="F172">
+        <v>2017</v>
+      </c>
+      <c r="G172" t="s">
+        <v>7</v>
+      </c>
+      <c r="H172" t="s">
+        <v>99</v>
+      </c>
+      <c r="J172" t="s">
+        <v>91</v>
+      </c>
+      <c r="K172" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>110</v>
+      </c>
+      <c r="B173" t="s">
+        <v>95</v>
+      </c>
+      <c r="C173" t="s">
+        <v>130</v>
+      </c>
+      <c r="D173" t="s">
+        <v>53</v>
+      </c>
+      <c r="E173" t="s">
+        <v>92</v>
+      </c>
+      <c r="F173">
+        <v>2018</v>
+      </c>
+      <c r="G173" t="s">
+        <v>7</v>
+      </c>
+      <c r="H173" t="s">
+        <v>8</v>
+      </c>
+      <c r="I173">
+        <v>3</v>
+      </c>
+      <c r="J173" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>111</v>
+      </c>
+      <c r="B174" t="s">
+        <v>95</v>
+      </c>
+      <c r="C174" t="s">
+        <v>130</v>
+      </c>
+      <c r="D174" t="s">
+        <v>53</v>
+      </c>
+      <c r="E174" t="s">
+        <v>92</v>
+      </c>
+      <c r="F174">
+        <v>2018</v>
+      </c>
+      <c r="G174" t="s">
+        <v>7</v>
+      </c>
+      <c r="H174" t="s">
+        <v>8</v>
+      </c>
+      <c r="I174">
+        <v>3</v>
+      </c>
+      <c r="J174" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>14</v>
+      </c>
+      <c r="B175" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" t="s">
+        <v>130</v>
+      </c>
+      <c r="D175" t="s">
+        <v>53</v>
+      </c>
+      <c r="E175" t="s">
         <v>62</v>
       </c>
-      <c r="F162">
-        <v>2016</v>
-      </c>
-      <c r="G162" t="s">
-        <v>61</v>
-      </c>
-      <c r="H162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C163" t="s">
-        <v>32</v>
-      </c>
-      <c r="D163" t="s">
-        <v>29</v>
-      </c>
-      <c r="K163" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C164" t="s">
-        <v>32</v>
-      </c>
-      <c r="D164" t="s">
-        <v>29</v>
-      </c>
-      <c r="K164" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C165" t="s">
-        <v>32</v>
-      </c>
-      <c r="D165" t="s">
-        <v>29</v>
-      </c>
-      <c r="K165" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C166" t="s">
-        <v>32</v>
-      </c>
-      <c r="D166" t="s">
-        <v>29</v>
-      </c>
-      <c r="K166" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C167" t="s">
-        <v>32</v>
-      </c>
-      <c r="D167" t="s">
-        <v>29</v>
-      </c>
-      <c r="K167" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C168" t="s">
-        <v>32</v>
-      </c>
-      <c r="D168" t="s">
-        <v>29</v>
-      </c>
-      <c r="K168" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C169" t="s">
-        <v>32</v>
-      </c>
-      <c r="D169" t="s">
-        <v>29</v>
-      </c>
-      <c r="K169" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C170" t="s">
-        <v>32</v>
-      </c>
-      <c r="D170" t="s">
-        <v>29</v>
-      </c>
-      <c r="K170" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C171" t="s">
-        <v>32</v>
-      </c>
-      <c r="D171" t="s">
-        <v>29</v>
-      </c>
-      <c r="K171" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C172" t="s">
-        <v>32</v>
-      </c>
-      <c r="D172" t="s">
-        <v>29</v>
-      </c>
-      <c r="K172" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C173" t="s">
-        <v>32</v>
-      </c>
-      <c r="D173" t="s">
-        <v>29</v>
-      </c>
-      <c r="K173" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C174" t="s">
-        <v>32</v>
-      </c>
-      <c r="D174" t="s">
-        <v>29</v>
-      </c>
-      <c r="K174" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C175" t="s">
-        <v>32</v>
-      </c>
-      <c r="D175" t="s">
-        <v>29</v>
-      </c>
-      <c r="K175" t="s">
-        <v>122</v>
+      <c r="F175">
+        <v>2018</v>
+      </c>
+      <c r="G175" t="s">
+        <v>7</v>
+      </c>
+      <c r="H175" t="s">
+        <v>8</v>
+      </c>
+      <c r="I175">
+        <v>3</v>
+      </c>
+      <c r="J175" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>128</v>
+      </c>
+      <c r="B176" t="s">
+        <v>9</v>
+      </c>
       <c r="C176" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="D176" t="s">
-        <v>29</v>
-      </c>
-      <c r="K176" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="177" spans="3:11" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="E176" t="s">
+        <v>94</v>
+      </c>
+      <c r="F176">
+        <v>2017</v>
+      </c>
+      <c r="G176" t="s">
+        <v>7</v>
+      </c>
+      <c r="H176" t="s">
+        <v>96</v>
+      </c>
+      <c r="I176">
+        <v>10</v>
+      </c>
+      <c r="J176" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C177" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="D177" t="s">
-        <v>29</v>
-      </c>
-      <c r="K177" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="178" spans="3:11" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="E177" t="s">
+        <v>94</v>
+      </c>
+      <c r="F177">
+        <v>2017</v>
+      </c>
+      <c r="G177" t="s">
+        <v>7</v>
+      </c>
+      <c r="H177" t="s">
+        <v>99</v>
+      </c>
+      <c r="I177">
+        <v>12</v>
+      </c>
+      <c r="J177" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C178" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="D178" t="s">
-        <v>29</v>
-      </c>
-      <c r="K178" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="179" spans="3:11" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="E178" t="s">
+        <v>94</v>
+      </c>
+      <c r="F178">
+        <v>2017</v>
+      </c>
+      <c r="G178" t="s">
+        <v>7</v>
+      </c>
+      <c r="H178" t="s">
+        <v>129</v>
+      </c>
+      <c r="I178">
+        <v>7</v>
+      </c>
+      <c r="J178" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>26</v>
+      </c>
+      <c r="B179" t="s">
+        <v>95</v>
+      </c>
       <c r="C179" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="D179" t="s">
-        <v>29</v>
-      </c>
-      <c r="K179" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="180" spans="3:11" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="E179" t="s">
+        <v>93</v>
+      </c>
+      <c r="F179">
+        <v>2018</v>
+      </c>
+      <c r="G179" t="s">
+        <v>61</v>
+      </c>
+      <c r="H179" t="s">
+        <v>8</v>
+      </c>
+      <c r="J179" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>119</v>
+      </c>
+      <c r="B180" t="s">
+        <v>9</v>
+      </c>
       <c r="C180" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="D180" t="s">
-        <v>29</v>
-      </c>
-      <c r="K180" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="181" spans="3:11" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="E180" t="s">
+        <v>94</v>
+      </c>
+      <c r="F180">
+        <v>2015</v>
+      </c>
+      <c r="G180" t="s">
+        <v>7</v>
+      </c>
+      <c r="H180" t="s">
+        <v>96</v>
+      </c>
+      <c r="I180">
+        <v>24</v>
+      </c>
+      <c r="J180" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>123</v>
+      </c>
+      <c r="B181" t="s">
+        <v>9</v>
+      </c>
       <c r="C181" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="D181" t="s">
-        <v>29</v>
-      </c>
-      <c r="K181" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="182" spans="3:11" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="E181" t="s">
+        <v>92</v>
+      </c>
+      <c r="F181">
+        <v>2015</v>
+      </c>
+      <c r="G181" t="s">
+        <v>7</v>
+      </c>
+      <c r="H181" t="s">
+        <v>96</v>
+      </c>
+      <c r="I181">
+        <v>42</v>
+      </c>
+      <c r="J181" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>100</v>
+      </c>
+      <c r="B182" t="s">
+        <v>9</v>
+      </c>
       <c r="C182" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="D182" t="s">
-        <v>29</v>
-      </c>
-      <c r="K182" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="183" spans="3:11" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="E182" t="s">
+        <v>92</v>
+      </c>
+      <c r="F182">
+        <v>2015</v>
+      </c>
+      <c r="G182" t="s">
+        <v>7</v>
+      </c>
+      <c r="H182" t="s">
+        <v>96</v>
+      </c>
+      <c r="I182">
+        <v>39</v>
+      </c>
+      <c r="J182" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>14</v>
+      </c>
+      <c r="B183" t="s">
+        <v>9</v>
+      </c>
       <c r="C183" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="D183" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="184" spans="3:11" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="E183" t="s">
+        <v>62</v>
+      </c>
+      <c r="F183">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>131</v>
+      </c>
+      <c r="B184" t="s">
+        <v>9</v>
+      </c>
       <c r="C184" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="D184" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="185" spans="3:11" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="E184" t="s">
+        <v>93</v>
+      </c>
+      <c r="F184">
+        <v>2018</v>
+      </c>
+      <c r="G184" t="s">
+        <v>7</v>
+      </c>
+      <c r="H184" t="s">
+        <v>99</v>
+      </c>
+      <c r="I184">
+        <v>0.5</v>
+      </c>
+      <c r="J184" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>132</v>
+      </c>
+      <c r="B185" t="s">
+        <v>9</v>
+      </c>
       <c r="C185" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="D185" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="186" spans="3:11" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="E185" t="s">
+        <v>93</v>
+      </c>
+      <c r="F185">
+        <v>2018</v>
+      </c>
+      <c r="G185" t="s">
+        <v>7</v>
+      </c>
+      <c r="H185" t="s">
+        <v>99</v>
+      </c>
+      <c r="I185" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>119</v>
+      </c>
+      <c r="B186" t="s">
+        <v>9</v>
+      </c>
       <c r="C186" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="D186" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="187" spans="3:11" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="E186" t="s">
+        <v>93</v>
+      </c>
+      <c r="F186">
+        <v>2018</v>
+      </c>
+      <c r="G186" t="s">
+        <v>7</v>
+      </c>
+      <c r="H186" t="s">
+        <v>99</v>
+      </c>
+      <c r="I186" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>133</v>
+      </c>
+      <c r="B187" t="s">
+        <v>9</v>
+      </c>
       <c r="C187" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="D187" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="188" spans="3:11" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="E187" t="s">
+        <v>93</v>
+      </c>
+      <c r="F187">
+        <v>2018</v>
+      </c>
+      <c r="G187" t="s">
+        <v>7</v>
+      </c>
+      <c r="H187" t="s">
+        <v>99</v>
+      </c>
+      <c r="I187" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>134</v>
+      </c>
+      <c r="B188" t="s">
+        <v>9</v>
+      </c>
       <c r="C188" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="D188" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="189" spans="3:11" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="E188" t="s">
+        <v>93</v>
+      </c>
+      <c r="F188">
+        <v>2018</v>
+      </c>
+      <c r="G188" t="s">
+        <v>7</v>
+      </c>
+      <c r="H188" t="s">
+        <v>99</v>
+      </c>
+      <c r="I188" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>104</v>
+      </c>
+      <c r="B189" t="s">
+        <v>9</v>
+      </c>
       <c r="C189" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="D189" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="190" spans="3:11" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="E189" t="s">
+        <v>93</v>
+      </c>
+      <c r="F189">
+        <v>2018</v>
+      </c>
+      <c r="G189" t="s">
+        <v>7</v>
+      </c>
+      <c r="H189" t="s">
+        <v>99</v>
+      </c>
+      <c r="I189" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>135</v>
+      </c>
+      <c r="B190" t="s">
+        <v>9</v>
+      </c>
       <c r="C190" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="D190" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="191" spans="3:11" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="E190" t="s">
+        <v>93</v>
+      </c>
+      <c r="F190">
+        <v>2018</v>
+      </c>
+      <c r="G190" t="s">
+        <v>7</v>
+      </c>
+      <c r="H190" t="s">
+        <v>99</v>
+      </c>
+      <c r="I190" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191" t="s">
+        <v>9</v>
+      </c>
       <c r="C191" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="D191" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="192" spans="3:11" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="E191" t="s">
+        <v>93</v>
+      </c>
+      <c r="F191">
+        <v>2018</v>
+      </c>
+      <c r="G191" t="s">
+        <v>7</v>
+      </c>
+      <c r="H191" t="s">
+        <v>99</v>
+      </c>
+      <c r="I191" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>136</v>
+      </c>
+      <c r="B192" t="s">
+        <v>9</v>
+      </c>
       <c r="C192" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="D192" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="E192" t="s">
+        <v>93</v>
+      </c>
+      <c r="F192">
+        <v>2018</v>
+      </c>
+      <c r="G192" t="s">
+        <v>7</v>
+      </c>
+      <c r="H192" t="s">
+        <v>99</v>
+      </c>
+      <c r="I192" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>137</v>
+      </c>
+      <c r="B193" t="s">
+        <v>9</v>
+      </c>
       <c r="C193" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="D193" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="E193" t="s">
+        <v>93</v>
+      </c>
+      <c r="F193">
+        <v>2018</v>
+      </c>
+      <c r="G193" t="s">
+        <v>7</v>
+      </c>
+      <c r="H193" t="s">
+        <v>99</v>
+      </c>
+      <c r="I193" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>138</v>
+      </c>
+      <c r="B194" t="s">
+        <v>9</v>
+      </c>
       <c r="C194" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="D194" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="E194" t="s">
+        <v>93</v>
+      </c>
+      <c r="F194">
+        <v>2018</v>
+      </c>
+      <c r="G194" t="s">
+        <v>7</v>
+      </c>
+      <c r="H194" t="s">
+        <v>99</v>
+      </c>
+      <c r="I194" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>23</v>
+      </c>
+      <c r="B195" t="s">
+        <v>9</v>
+      </c>
       <c r="C195" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="D195" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="E195" t="s">
+        <v>93</v>
+      </c>
+      <c r="F195">
+        <v>2018</v>
+      </c>
+      <c r="G195" t="s">
+        <v>7</v>
+      </c>
+      <c r="H195" t="s">
+        <v>99</v>
+      </c>
+      <c r="I195" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>139</v>
+      </c>
+      <c r="B196" t="s">
+        <v>9</v>
+      </c>
       <c r="C196" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="D196" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="E196" t="s">
+        <v>93</v>
+      </c>
+      <c r="F196">
+        <v>2018</v>
+      </c>
+      <c r="G196" t="s">
+        <v>7</v>
+      </c>
+      <c r="H196" t="s">
+        <v>99</v>
+      </c>
+      <c r="I196" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>140</v>
+      </c>
+      <c r="B197" t="s">
+        <v>9</v>
+      </c>
       <c r="C197" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="D197" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="E197" t="s">
+        <v>93</v>
+      </c>
+      <c r="F197">
+        <v>2018</v>
+      </c>
+      <c r="G197" t="s">
+        <v>7</v>
+      </c>
+      <c r="H197" t="s">
+        <v>99</v>
+      </c>
+      <c r="I197" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B198" t="s">
         <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="D198" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E198" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="F198">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G198" t="s">
         <v>7</v>
@@ -5106,31 +6087,28 @@
       <c r="H198" t="s">
         <v>99</v>
       </c>
-      <c r="J198" t="s">
-        <v>91</v>
-      </c>
-      <c r="K198" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I198" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="B199" t="s">
         <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="D199" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E199" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="F199">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G199" t="s">
         <v>7</v>
@@ -5138,31 +6116,28 @@
       <c r="H199" t="s">
         <v>99</v>
       </c>
-      <c r="J199" t="s">
-        <v>91</v>
-      </c>
-      <c r="K199" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I199" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="B200" t="s">
         <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="D200" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E200" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="F200">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G200" t="s">
         <v>7</v>
@@ -5170,31 +6145,28 @@
       <c r="H200" t="s">
         <v>99</v>
       </c>
-      <c r="J200" t="s">
-        <v>91</v>
-      </c>
-      <c r="K200" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I200" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="B201" t="s">
         <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="D201" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E201" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="F201">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G201" t="s">
         <v>7</v>
@@ -5202,31 +6174,28 @@
       <c r="H201" t="s">
         <v>99</v>
       </c>
-      <c r="J201" t="s">
-        <v>91</v>
-      </c>
-      <c r="K201" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I201" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="B202" t="s">
         <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="D202" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E202" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="F202">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G202" t="s">
         <v>7</v>
@@ -5234,31 +6203,28 @@
       <c r="H202" t="s">
         <v>99</v>
       </c>
-      <c r="J202" t="s">
-        <v>91</v>
-      </c>
-      <c r="K202" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I202" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B203" t="s">
         <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="D203" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E203" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="F203">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G203" t="s">
         <v>7</v>
@@ -5266,31 +6232,28 @@
       <c r="H203" t="s">
         <v>99</v>
       </c>
-      <c r="J203" t="s">
-        <v>91</v>
-      </c>
-      <c r="K203" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I203" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B204" t="s">
         <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="D204" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E204" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="F204">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G204" t="s">
         <v>7</v>
@@ -5298,31 +6261,28 @@
       <c r="H204" t="s">
         <v>99</v>
       </c>
-      <c r="J204" t="s">
-        <v>91</v>
-      </c>
-      <c r="K204" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I204" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="B205" t="s">
         <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="D205" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E205" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="F205">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G205" t="s">
         <v>7</v>
@@ -5330,31 +6290,28 @@
       <c r="H205" t="s">
         <v>99</v>
       </c>
-      <c r="J205" t="s">
-        <v>91</v>
-      </c>
-      <c r="K205" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I205" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="B206" t="s">
         <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="D206" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E206" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="F206">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G206" t="s">
         <v>7</v>
@@ -5362,31 +6319,28 @@
       <c r="H206" t="s">
         <v>99</v>
       </c>
-      <c r="J206" t="s">
-        <v>91</v>
-      </c>
-      <c r="K206" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I206" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="B207" t="s">
         <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="D207" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E207" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="F207">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G207" t="s">
         <v>7</v>
@@ -5394,31 +6348,28 @@
       <c r="H207" t="s">
         <v>99</v>
       </c>
-      <c r="J207" t="s">
-        <v>91</v>
-      </c>
-      <c r="K207" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I207" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B208" t="s">
         <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="D208" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E208" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="F208">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G208" t="s">
         <v>7</v>
@@ -5426,31 +6377,28 @@
       <c r="H208" t="s">
         <v>99</v>
       </c>
-      <c r="J208" t="s">
-        <v>91</v>
-      </c>
-      <c r="K208" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I208" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B209" t="s">
         <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="D209" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E209" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="F209">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G209" t="s">
         <v>7</v>
@@ -5458,31 +6406,28 @@
       <c r="H209" t="s">
         <v>99</v>
       </c>
-      <c r="J209" t="s">
-        <v>91</v>
-      </c>
-      <c r="K209" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I209" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="B210" t="s">
         <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="D210" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E210" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="F210">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G210" t="s">
         <v>7</v>
@@ -5490,57 +6435,54 @@
       <c r="H210" t="s">
         <v>99</v>
       </c>
-      <c r="J210" t="s">
-        <v>91</v>
-      </c>
-      <c r="K210" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I210" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="B211" t="s">
         <v>95</v>
       </c>
       <c r="C211" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D211" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="E211" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="F211">
         <v>2018</v>
       </c>
       <c r="G211" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H211" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="I211">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="J211" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="B212" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D212" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="E212" t="s">
         <v>92</v>
@@ -5552,27 +6494,27 @@
         <v>7</v>
       </c>
       <c r="H212" t="s">
-        <v>8</v>
-      </c>
-      <c r="I212">
-        <v>3</v>
+        <v>96</v>
+      </c>
+      <c r="I212" s="3">
+        <v>36</v>
       </c>
       <c r="J212" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B213" t="s">
         <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D213" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="E213" t="s">
         <v>62</v>
@@ -5581,114 +6523,42 @@
         <v>2018</v>
       </c>
       <c r="G213" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H213" t="s">
-        <v>8</v>
-      </c>
-      <c r="I213">
-        <v>3</v>
-      </c>
-      <c r="J213" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>128</v>
-      </c>
-      <c r="B214" t="s">
-        <v>9</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="I213" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C214" t="s">
-        <v>113</v>
-      </c>
-      <c r="D214" t="s">
-        <v>114</v>
-      </c>
-      <c r="E214" t="s">
-        <v>94</v>
-      </c>
-      <c r="F214">
-        <v>2017</v>
-      </c>
-      <c r="G214" t="s">
-        <v>7</v>
-      </c>
-      <c r="H214" t="s">
-        <v>96</v>
-      </c>
-      <c r="I214">
-        <v>10</v>
-      </c>
-      <c r="J214" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C215" t="s">
-        <v>113</v>
-      </c>
-      <c r="D215" t="s">
-        <v>114</v>
-      </c>
-      <c r="E215" t="s">
-        <v>94</v>
-      </c>
-      <c r="F215">
-        <v>2017</v>
-      </c>
-      <c r="G215" t="s">
-        <v>7</v>
-      </c>
-      <c r="H215" t="s">
-        <v>99</v>
-      </c>
-      <c r="I215">
-        <v>12</v>
-      </c>
-      <c r="J215" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C216" t="s">
-        <v>113</v>
-      </c>
-      <c r="D216" t="s">
-        <v>114</v>
-      </c>
-      <c r="E216" t="s">
-        <v>94</v>
-      </c>
-      <c r="F216">
-        <v>2017</v>
-      </c>
-      <c r="G216" t="s">
-        <v>7</v>
-      </c>
-      <c r="H216" t="s">
-        <v>129</v>
-      </c>
-      <c r="I216">
-        <v>7</v>
-      </c>
-      <c r="J216" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B217" t="s">
         <v>95</v>
       </c>
       <c r="C217" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="D217" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="E217" t="s">
         <v>93</v>
@@ -5697,27 +6567,30 @@
         <v>2018</v>
       </c>
       <c r="G217" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="H217" t="s">
         <v>8</v>
       </c>
+      <c r="I217">
+        <v>2</v>
+      </c>
       <c r="J217" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B218" t="s">
         <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="D218" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E218" t="s">
         <v>94</v>
@@ -5732,30 +6605,27 @@
         <v>96</v>
       </c>
       <c r="I218">
-        <v>24</v>
-      </c>
-      <c r="J218" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="B219" t="s">
         <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="D219" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E219" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F219">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G219" t="s">
         <v>7</v>
@@ -5764,30 +6634,27 @@
         <v>96</v>
       </c>
       <c r="I219">
-        <v>36</v>
-      </c>
-      <c r="J219" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B220" t="s">
         <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="D220" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E220" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="F220">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G220" t="s">
         <v>7</v>
@@ -5796,1317 +6663,843 @@
         <v>96</v>
       </c>
       <c r="I220">
-        <v>39</v>
-      </c>
-      <c r="J220" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>14</v>
-      </c>
-      <c r="B221" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="C221" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="D221" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="E221" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="F221">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>131</v>
-      </c>
-      <c r="B222" t="s">
-        <v>9</v>
-      </c>
+        <v>2017</v>
+      </c>
+      <c r="G221" t="s">
+        <v>7</v>
+      </c>
+      <c r="H221" t="s">
+        <v>96</v>
+      </c>
+      <c r="I221">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C222" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="D222" t="s">
-        <v>86</v>
-      </c>
-      <c r="E222" t="s">
-        <v>93</v>
-      </c>
-      <c r="F222">
-        <v>2018</v>
-      </c>
-      <c r="G222" t="s">
-        <v>7</v>
-      </c>
-      <c r="H222" t="s">
-        <v>99</v>
-      </c>
-      <c r="I222">
-        <v>0.5</v>
-      </c>
-      <c r="J222" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>132</v>
-      </c>
-      <c r="B223" t="s">
-        <v>9</v>
-      </c>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C223" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="D223" t="s">
-        <v>86</v>
-      </c>
-      <c r="E223" t="s">
-        <v>93</v>
-      </c>
-      <c r="F223">
-        <v>2018</v>
-      </c>
-      <c r="G223" t="s">
-        <v>7</v>
-      </c>
-      <c r="H223" t="s">
-        <v>99</v>
-      </c>
-      <c r="I223" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>119</v>
-      </c>
-      <c r="B224" t="s">
-        <v>9</v>
-      </c>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C224" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="D224" t="s">
-        <v>86</v>
-      </c>
-      <c r="E224" t="s">
-        <v>93</v>
-      </c>
-      <c r="F224">
-        <v>2018</v>
-      </c>
-      <c r="G224" t="s">
-        <v>7</v>
-      </c>
-      <c r="H224" t="s">
-        <v>99</v>
-      </c>
-      <c r="I224" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>133</v>
-      </c>
-      <c r="B225" t="s">
-        <v>9</v>
-      </c>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C225" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="D225" t="s">
-        <v>86</v>
-      </c>
-      <c r="E225" t="s">
-        <v>93</v>
-      </c>
-      <c r="F225">
-        <v>2018</v>
-      </c>
-      <c r="G225" t="s">
-        <v>7</v>
-      </c>
-      <c r="H225" t="s">
-        <v>99</v>
-      </c>
-      <c r="I225" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>134</v>
-      </c>
-      <c r="B226" t="s">
-        <v>9</v>
-      </c>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C226" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="D226" t="s">
-        <v>86</v>
-      </c>
-      <c r="E226" t="s">
-        <v>93</v>
-      </c>
-      <c r="F226">
-        <v>2018</v>
-      </c>
-      <c r="G226" t="s">
-        <v>7</v>
-      </c>
-      <c r="H226" t="s">
-        <v>99</v>
-      </c>
-      <c r="I226" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>104</v>
+        <v>219</v>
       </c>
       <c r="B227" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="C227" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="D227" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="E227" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="F227">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G227" t="s">
         <v>7</v>
       </c>
       <c r="H227" t="s">
-        <v>99</v>
-      </c>
-      <c r="I227" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="I227">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="B228" t="s">
         <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="D228" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="E228" t="s">
         <v>93</v>
       </c>
       <c r="F228">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="G228" t="s">
         <v>7</v>
       </c>
       <c r="H228" t="s">
-        <v>99</v>
-      </c>
-      <c r="I228" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="I228">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="B229" t="s">
         <v>9</v>
       </c>
       <c r="C229" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="D229" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="E229" t="s">
-        <v>93</v>
+        <v>222</v>
       </c>
       <c r="F229">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="G229" t="s">
         <v>7</v>
       </c>
       <c r="H229" t="s">
-        <v>99</v>
-      </c>
-      <c r="I229" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>136</v>
-      </c>
-      <c r="B230" t="s">
-        <v>9</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="I229">
+        <v>37.75</v>
+      </c>
+      <c r="J229" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C230" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="D230" t="s">
-        <v>86</v>
-      </c>
-      <c r="E230" t="s">
-        <v>93</v>
-      </c>
-      <c r="F230">
-        <v>2018</v>
-      </c>
-      <c r="G230" t="s">
-        <v>7</v>
-      </c>
-      <c r="H230" t="s">
-        <v>99</v>
-      </c>
-      <c r="I230" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>137</v>
-      </c>
-      <c r="B231" t="s">
-        <v>9</v>
-      </c>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C231" t="s">
-        <v>146</v>
-      </c>
-      <c r="D231" t="s">
-        <v>86</v>
-      </c>
-      <c r="E231" t="s">
-        <v>93</v>
-      </c>
-      <c r="F231">
-        <v>2018</v>
-      </c>
-      <c r="G231" t="s">
-        <v>7</v>
-      </c>
-      <c r="H231" t="s">
-        <v>99</v>
-      </c>
-      <c r="I231" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>138</v>
-      </c>
-      <c r="B232" t="s">
-        <v>9</v>
-      </c>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C232" t="s">
-        <v>146</v>
-      </c>
-      <c r="D232" t="s">
-        <v>86</v>
-      </c>
-      <c r="E232" t="s">
-        <v>93</v>
-      </c>
-      <c r="F232">
-        <v>2018</v>
-      </c>
-      <c r="G232" t="s">
-        <v>7</v>
-      </c>
-      <c r="H232" t="s">
-        <v>99</v>
-      </c>
-      <c r="I232" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>23</v>
-      </c>
-      <c r="B233" t="s">
-        <v>9</v>
-      </c>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C233" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="D233" t="s">
-        <v>86</v>
-      </c>
-      <c r="E233" t="s">
-        <v>93</v>
-      </c>
-      <c r="F233">
-        <v>2018</v>
-      </c>
-      <c r="G233" t="s">
-        <v>7</v>
-      </c>
-      <c r="H233" t="s">
-        <v>99</v>
-      </c>
-      <c r="I233" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>139</v>
-      </c>
-      <c r="B234" t="s">
-        <v>9</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C234" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="D234" t="s">
-        <v>86</v>
-      </c>
-      <c r="E234" t="s">
-        <v>93</v>
-      </c>
-      <c r="F234">
-        <v>2018</v>
-      </c>
-      <c r="G234" t="s">
-        <v>7</v>
-      </c>
-      <c r="H234" t="s">
-        <v>99</v>
-      </c>
-      <c r="I234" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>140</v>
-      </c>
-      <c r="B235" t="s">
-        <v>9</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C235" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="D235" t="s">
-        <v>86</v>
-      </c>
-      <c r="E235" t="s">
-        <v>93</v>
-      </c>
-      <c r="F235">
-        <v>2018</v>
-      </c>
-      <c r="G235" t="s">
-        <v>7</v>
-      </c>
-      <c r="H235" t="s">
-        <v>99</v>
-      </c>
-      <c r="I235" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>65</v>
-      </c>
-      <c r="B236" t="s">
-        <v>9</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C236" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="D236" t="s">
-        <v>86</v>
-      </c>
-      <c r="E236" t="s">
-        <v>93</v>
-      </c>
-      <c r="F236">
-        <v>2018</v>
-      </c>
-      <c r="G236" t="s">
-        <v>7</v>
-      </c>
-      <c r="H236" t="s">
-        <v>99</v>
-      </c>
-      <c r="I236" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>141</v>
-      </c>
-      <c r="B237" t="s">
-        <v>9</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C237" t="s">
-        <v>146</v>
-      </c>
-      <c r="D237" t="s">
-        <v>86</v>
-      </c>
-      <c r="E237" t="s">
-        <v>93</v>
-      </c>
-      <c r="F237">
-        <v>2018</v>
-      </c>
-      <c r="G237" t="s">
-        <v>7</v>
-      </c>
-      <c r="H237" t="s">
-        <v>99</v>
-      </c>
-      <c r="I237" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>25</v>
-      </c>
-      <c r="B238" t="s">
-        <v>9</v>
-      </c>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C238" t="s">
-        <v>146</v>
-      </c>
-      <c r="D238" t="s">
-        <v>86</v>
-      </c>
-      <c r="E238" t="s">
-        <v>93</v>
-      </c>
-      <c r="F238">
-        <v>2018</v>
-      </c>
-      <c r="G238" t="s">
-        <v>7</v>
-      </c>
-      <c r="H238" t="s">
-        <v>99</v>
-      </c>
-      <c r="I238" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>142</v>
-      </c>
-      <c r="B239" t="s">
-        <v>9</v>
-      </c>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C239" t="s">
-        <v>146</v>
-      </c>
-      <c r="D239" t="s">
-        <v>86</v>
-      </c>
-      <c r="E239" t="s">
-        <v>93</v>
-      </c>
-      <c r="F239">
-        <v>2018</v>
-      </c>
-      <c r="G239" t="s">
-        <v>7</v>
-      </c>
-      <c r="H239" t="s">
-        <v>99</v>
-      </c>
-      <c r="I239" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>143</v>
-      </c>
-      <c r="B240" t="s">
-        <v>9</v>
-      </c>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C240" t="s">
-        <v>146</v>
-      </c>
-      <c r="D240" t="s">
-        <v>86</v>
-      </c>
-      <c r="E240" t="s">
-        <v>93</v>
-      </c>
-      <c r="F240">
-        <v>2018</v>
-      </c>
-      <c r="G240" t="s">
-        <v>7</v>
-      </c>
-      <c r="H240" t="s">
-        <v>99</v>
-      </c>
-      <c r="I240" s="3">
-        <v>0.5</v>
+        <v>192</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>116</v>
-      </c>
-      <c r="B241" t="s">
-        <v>9</v>
-      </c>
       <c r="C241" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="D241" t="s">
-        <v>86</v>
-      </c>
-      <c r="E241" t="s">
-        <v>93</v>
-      </c>
-      <c r="F241">
-        <v>2018</v>
-      </c>
-      <c r="G241" t="s">
-        <v>7</v>
-      </c>
-      <c r="H241" t="s">
-        <v>99</v>
-      </c>
-      <c r="I241" s="3">
-        <v>0.5</v>
+        <v>194</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>22</v>
-      </c>
-      <c r="B242" t="s">
-        <v>9</v>
-      </c>
       <c r="C242" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="D242" t="s">
-        <v>86</v>
-      </c>
-      <c r="E242" t="s">
-        <v>93</v>
-      </c>
-      <c r="F242">
-        <v>2018</v>
-      </c>
-      <c r="G242" t="s">
-        <v>7</v>
-      </c>
-      <c r="H242" t="s">
-        <v>99</v>
-      </c>
-      <c r="I242" s="3">
-        <v>0.5</v>
+        <v>196</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>67</v>
-      </c>
-      <c r="B243" t="s">
-        <v>9</v>
-      </c>
       <c r="C243" t="s">
-        <v>146</v>
-      </c>
-      <c r="D243" t="s">
-        <v>86</v>
-      </c>
-      <c r="E243" t="s">
-        <v>93</v>
-      </c>
-      <c r="F243">
-        <v>2018</v>
-      </c>
-      <c r="G243" t="s">
-        <v>7</v>
-      </c>
-      <c r="H243" t="s">
-        <v>99</v>
-      </c>
-      <c r="I243" s="3">
-        <v>0.5</v>
+        <v>117</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>144</v>
-      </c>
-      <c r="B244" t="s">
-        <v>9</v>
-      </c>
       <c r="C244" t="s">
-        <v>146</v>
-      </c>
-      <c r="D244" t="s">
-        <v>86</v>
-      </c>
-      <c r="E244" t="s">
-        <v>93</v>
-      </c>
-      <c r="F244">
-        <v>2018</v>
-      </c>
-      <c r="G244" t="s">
-        <v>7</v>
-      </c>
-      <c r="H244" t="s">
-        <v>99</v>
-      </c>
-      <c r="I244" s="3">
-        <v>0.5</v>
+        <v>197</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="B245" t="s">
         <v>9</v>
       </c>
       <c r="C245" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="D245" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="E245" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="F245">
         <v>2018</v>
       </c>
       <c r="G245" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H245" t="s">
-        <v>99</v>
-      </c>
-      <c r="I245" s="3">
-        <v>0.5</v>
+        <v>8</v>
+      </c>
+      <c r="I245">
+        <v>0.25</v>
+      </c>
+      <c r="J245" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>123</v>
-      </c>
-      <c r="B246" t="s">
-        <v>9</v>
-      </c>
       <c r="C246" t="s">
-        <v>146</v>
-      </c>
-      <c r="D246" t="s">
-        <v>86</v>
-      </c>
-      <c r="E246" t="s">
-        <v>93</v>
-      </c>
-      <c r="F246">
-        <v>2018</v>
-      </c>
-      <c r="G246" t="s">
-        <v>7</v>
-      </c>
-      <c r="H246" t="s">
-        <v>99</v>
-      </c>
-      <c r="I246" s="3">
-        <v>0.5</v>
+        <v>198</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B247" t="s">
         <v>9</v>
       </c>
       <c r="C247" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="D247" t="s">
-        <v>86</v>
-      </c>
-      <c r="E247" t="s">
-        <v>93</v>
-      </c>
-      <c r="F247">
-        <v>2018</v>
-      </c>
-      <c r="G247" t="s">
-        <v>7</v>
-      </c>
-      <c r="H247" t="s">
-        <v>99</v>
-      </c>
-      <c r="I247" s="3">
-        <v>0.5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>145</v>
-      </c>
-      <c r="B248" t="s">
-        <v>9</v>
+        <v>162</v>
       </c>
       <c r="C248" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="D248" t="s">
-        <v>86</v>
-      </c>
-      <c r="E248" t="s">
-        <v>93</v>
-      </c>
-      <c r="F248">
-        <v>2018</v>
-      </c>
-      <c r="G248" t="s">
-        <v>7</v>
-      </c>
-      <c r="H248" t="s">
-        <v>99</v>
-      </c>
-      <c r="I248" s="3">
-        <v>0.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>73</v>
-      </c>
-      <c r="B249" t="s">
-        <v>95</v>
+        <v>207</v>
       </c>
       <c r="C249" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="D249" t="s">
-        <v>98</v>
-      </c>
-      <c r="E249" t="s">
-        <v>62</v>
-      </c>
-      <c r="F249">
-        <v>2018</v>
-      </c>
-      <c r="G249" t="s">
-        <v>149</v>
-      </c>
-      <c r="H249" t="s">
-        <v>154</v>
-      </c>
-      <c r="I249">
-        <v>48</v>
-      </c>
-      <c r="J249" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="B250" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="C250" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="D250" t="s">
-        <v>98</v>
-      </c>
-      <c r="E250" t="s">
-        <v>92</v>
-      </c>
-      <c r="F250">
-        <v>2018</v>
-      </c>
-      <c r="G250" t="s">
-        <v>7</v>
-      </c>
-      <c r="H250" t="s">
-        <v>96</v>
-      </c>
-      <c r="I250" s="3">
-        <v>36</v>
-      </c>
-      <c r="J250" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="B251" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="C251" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="D251" t="s">
-        <v>151</v>
-      </c>
-      <c r="E251" t="s">
-        <v>62</v>
-      </c>
-      <c r="F251">
-        <v>2018</v>
-      </c>
-      <c r="G251" t="s">
-        <v>149</v>
-      </c>
-      <c r="H251" t="s">
-        <v>154</v>
-      </c>
-      <c r="I251" s="3">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>155</v>
+      </c>
+      <c r="B252" t="s">
+        <v>95</v>
+      </c>
       <c r="C252" t="s">
-        <v>152</v>
+        <v>50</v>
+      </c>
+      <c r="D252" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>156</v>
+      </c>
+      <c r="B253" t="s">
+        <v>95</v>
+      </c>
       <c r="C253" t="s">
-        <v>152</v>
+        <v>50</v>
+      </c>
+      <c r="D253" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>10</v>
+      </c>
+      <c r="B254" t="s">
+        <v>95</v>
+      </c>
       <c r="C254" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="D254" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="B255" t="s">
         <v>95</v>
       </c>
       <c r="C255" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="D255" t="s">
-        <v>29</v>
-      </c>
-      <c r="E255" t="s">
-        <v>93</v>
-      </c>
-      <c r="F255">
-        <v>2018</v>
-      </c>
-      <c r="G255" t="s">
-        <v>149</v>
-      </c>
-      <c r="H255" t="s">
-        <v>8</v>
-      </c>
-      <c r="I255">
-        <v>2</v>
-      </c>
-      <c r="J255" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="B256" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="C256" t="s">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="D256" t="s">
-        <v>35</v>
-      </c>
-      <c r="E256" t="s">
-        <v>94</v>
-      </c>
-      <c r="F256">
-        <v>2015</v>
-      </c>
-      <c r="G256" t="s">
-        <v>7</v>
-      </c>
-      <c r="H256" t="s">
-        <v>96</v>
-      </c>
-      <c r="I256">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B257" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="C257" t="s">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="D257" t="s">
-        <v>35</v>
-      </c>
-      <c r="E257" t="s">
-        <v>94</v>
-      </c>
-      <c r="F257">
-        <v>2017</v>
-      </c>
-      <c r="G257" t="s">
-        <v>7</v>
-      </c>
-      <c r="H257" t="s">
-        <v>96</v>
-      </c>
-      <c r="I257">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="B258" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="C258" t="s">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="D258" t="s">
-        <v>35</v>
-      </c>
-      <c r="E258" t="s">
-        <v>18</v>
-      </c>
-      <c r="F258">
-        <v>2017</v>
-      </c>
-      <c r="G258" t="s">
-        <v>7</v>
-      </c>
-      <c r="H258" t="s">
-        <v>96</v>
-      </c>
-      <c r="I258">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>167</v>
+        <v>160</v>
+      </c>
+      <c r="B259" t="s">
+        <v>95</v>
       </c>
       <c r="C259" t="s">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="D259" t="s">
-        <v>35</v>
-      </c>
-      <c r="E259" t="s">
-        <v>94</v>
-      </c>
-      <c r="F259">
-        <v>2017</v>
-      </c>
-      <c r="G259" t="s">
-        <v>7</v>
-      </c>
-      <c r="H259" t="s">
-        <v>96</v>
-      </c>
-      <c r="I259">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>110</v>
+      </c>
+      <c r="B260" t="s">
+        <v>95</v>
+      </c>
       <c r="C260" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="D260" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>202</v>
+      </c>
+      <c r="B261" t="s">
+        <v>95</v>
+      </c>
       <c r="C261" t="s">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="D261" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>203</v>
+      </c>
+      <c r="B262" t="s">
+        <v>95</v>
+      </c>
       <c r="C262" t="s">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="D262" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>204</v>
+      </c>
+      <c r="B263" t="s">
+        <v>95</v>
+      </c>
       <c r="C263" t="s">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="D263" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>205</v>
+      </c>
+      <c r="B264" t="s">
+        <v>95</v>
+      </c>
       <c r="C264" t="s">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="D264" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B265" t="s">
         <v>95</v>
       </c>
       <c r="C265" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="D265" t="s">
-        <v>59</v>
-      </c>
-      <c r="E265" t="s">
-        <v>18</v>
-      </c>
-      <c r="F265">
-        <v>2017</v>
-      </c>
-      <c r="G265" t="s">
-        <v>7</v>
-      </c>
-      <c r="H265" t="s">
-        <v>96</v>
-      </c>
-      <c r="I265">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>74</v>
+      </c>
       <c r="C266" t="s">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c r="D266" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>75</v>
+      </c>
       <c r="C267" t="s">
-        <v>184</v>
+        <v>50</v>
       </c>
       <c r="D267" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>20</v>
+      </c>
       <c r="C268" t="s">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="D268" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>163</v>
+      </c>
       <c r="C269" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="D269" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>77</v>
+      </c>
       <c r="C270" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="D270" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>208</v>
+      </c>
+      <c r="B271" t="s">
+        <v>9</v>
+      </c>
       <c r="C271" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="D271" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>102</v>
+      </c>
+      <c r="B272" t="s">
+        <v>9</v>
+      </c>
       <c r="C272" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="D272" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>132</v>
+      </c>
+      <c r="B273" t="s">
+        <v>9</v>
+      </c>
       <c r="C273" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="D273" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>64</v>
+      </c>
+      <c r="B274" t="s">
+        <v>9</v>
+      </c>
       <c r="C274" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="D274" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>6</v>
+      </c>
+      <c r="B275" t="s">
+        <v>9</v>
+      </c>
       <c r="C275" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="D275" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>209</v>
+      </c>
+      <c r="B276" t="s">
+        <v>9</v>
+      </c>
       <c r="C276" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="D276" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>137</v>
+      </c>
+      <c r="B277" t="s">
+        <v>9</v>
+      </c>
       <c r="C277" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="D277" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>138</v>
+      </c>
+      <c r="B278" t="s">
+        <v>9</v>
+      </c>
       <c r="C278" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="D278" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>23</v>
+      </c>
+      <c r="B279" t="s">
+        <v>9</v>
+      </c>
       <c r="C279" t="s">
-        <v>193</v>
+        <v>50</v>
       </c>
       <c r="D279" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>139</v>
+      </c>
+      <c r="B280" t="s">
+        <v>9</v>
+      </c>
       <c r="C280" t="s">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="D280" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>210</v>
+      </c>
+      <c r="B281" t="s">
+        <v>9</v>
+      </c>
       <c r="C281" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="D281" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>211</v>
+      </c>
+      <c r="B282" t="s">
+        <v>9</v>
+      </c>
       <c r="C282" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="D282" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c r="B283" t="s">
         <v>9</v>
       </c>
       <c r="C283" t="s">
-        <v>214</v>
+        <v>50</v>
       </c>
       <c r="D283" t="s">
-        <v>29</v>
-      </c>
-      <c r="E283" t="s">
-        <v>62</v>
-      </c>
-      <c r="F283">
-        <v>2018</v>
-      </c>
-      <c r="G283" t="s">
-        <v>149</v>
-      </c>
-      <c r="H283" t="s">
-        <v>8</v>
-      </c>
-      <c r="I283">
-        <v>0.25</v>
-      </c>
-      <c r="J283" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>141</v>
+      </c>
+      <c r="B284" t="s">
+        <v>9</v>
+      </c>
       <c r="C284" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="D284" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B285" t="s">
         <v>9</v>
       </c>
       <c r="C285" t="s">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="D285" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>162</v>
+        <v>116</v>
+      </c>
+      <c r="B286" t="s">
+        <v>9</v>
       </c>
       <c r="C286" t="s">
-        <v>201</v>
+        <v>50</v>
       </c>
       <c r="D286" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>207</v>
+        <v>15</v>
+      </c>
+      <c r="B287" t="s">
+        <v>9</v>
       </c>
       <c r="C287" t="s">
         <v>50</v>
@@ -7115,12 +7508,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B288" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C288" t="s">
         <v>50</v>
@@ -7129,12 +7522,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="B289" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C289" t="s">
         <v>50</v>
@@ -7143,12 +7536,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="B290" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C290" t="s">
         <v>50</v>
@@ -7157,12 +7550,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="B291" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C291" t="s">
         <v>50</v>
@@ -7171,12 +7564,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="B292" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C292" t="s">
         <v>50</v>
@@ -7185,12 +7578,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="B293" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C293" t="s">
         <v>50</v>
@@ -7199,12 +7592,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B294" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C294" t="s">
         <v>50</v>
@@ -7213,617 +7606,385 @@
         <v>31</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="B295" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C295" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="D295" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="E295" t="s">
+        <v>12</v>
+      </c>
+      <c r="F295" t="s">
+        <v>218</v>
+      </c>
+      <c r="G295" t="s">
+        <v>7</v>
+      </c>
+      <c r="H295" t="s">
+        <v>96</v>
+      </c>
+      <c r="I295">
+        <v>62</v>
+      </c>
+      <c r="J295" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="B296" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C296" t="s">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="D296" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="E296" t="s">
+        <v>62</v>
+      </c>
+      <c r="F296">
+        <v>2018</v>
+      </c>
+      <c r="G296" t="s">
+        <v>7</v>
+      </c>
+      <c r="H296" t="s">
+        <v>96</v>
+      </c>
+      <c r="I296">
+        <v>42</v>
+      </c>
+      <c r="J296" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B297" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C297" t="s">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="D297" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="E297" t="s">
+        <v>221</v>
+      </c>
+      <c r="F297">
+        <v>2015</v>
+      </c>
+      <c r="G297" t="s">
+        <v>7</v>
+      </c>
+      <c r="H297" t="s">
+        <v>96</v>
+      </c>
+      <c r="I297">
+        <v>20.5</v>
+      </c>
+      <c r="J297" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B298" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C298" t="s">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="D298" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="E298" t="s">
+        <v>12</v>
+      </c>
+      <c r="F298">
+        <v>2015</v>
+      </c>
+      <c r="G298" t="s">
+        <v>7</v>
+      </c>
+      <c r="H298" t="s">
+        <v>224</v>
+      </c>
+      <c r="J298" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="B299" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C299" t="s">
-        <v>50</v>
+        <v>223</v>
       </c>
       <c r="D299" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="E299" t="s">
+        <v>222</v>
+      </c>
+      <c r="F299">
+        <v>2015</v>
+      </c>
+      <c r="G299" t="s">
+        <v>7</v>
+      </c>
+      <c r="H299" t="s">
+        <v>96</v>
+      </c>
+      <c r="I299">
+        <v>60</v>
+      </c>
+      <c r="J299" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="B300" t="s">
         <v>95</v>
       </c>
       <c r="C300" t="s">
-        <v>50</v>
+        <v>226</v>
       </c>
       <c r="D300" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="E300" t="s">
+        <v>62</v>
+      </c>
+      <c r="F300">
+        <v>2018</v>
+      </c>
+      <c r="G300" t="s">
+        <v>61</v>
+      </c>
+      <c r="H300" t="s">
+        <v>8</v>
+      </c>
+      <c r="I300">
+        <v>2.5</v>
+      </c>
+      <c r="J300" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="B301" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C301" t="s">
-        <v>50</v>
+        <v>226</v>
       </c>
       <c r="D301" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="E301" t="s">
+        <v>94</v>
+      </c>
+      <c r="F301">
+        <v>2017</v>
+      </c>
+      <c r="G301" t="s">
+        <v>7</v>
+      </c>
+      <c r="H301" t="s">
+        <v>96</v>
+      </c>
+      <c r="I301">
+        <v>16</v>
+      </c>
+      <c r="J301" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="B302" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C302" t="s">
-        <v>50</v>
+        <v>226</v>
       </c>
       <c r="D302" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="E302" t="s">
+        <v>93</v>
+      </c>
+      <c r="F302">
+        <v>2017</v>
+      </c>
+      <c r="G302" t="s">
+        <v>7</v>
+      </c>
+      <c r="H302" t="s">
+        <v>96</v>
+      </c>
+      <c r="I302">
+        <v>33.5</v>
+      </c>
+      <c r="J302" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="B303" t="s">
         <v>95</v>
       </c>
       <c r="C303" t="s">
-        <v>50</v>
+        <v>227</v>
       </c>
       <c r="D303" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="E303" t="s">
+        <v>93</v>
+      </c>
+      <c r="F303">
+        <v>2018</v>
+      </c>
+      <c r="G303" t="s">
+        <v>61</v>
+      </c>
+      <c r="H303" t="s">
+        <v>8</v>
+      </c>
+      <c r="I303">
+        <v>1.75</v>
+      </c>
+      <c r="J303" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>74</v>
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>9</v>
       </c>
       <c r="C304" t="s">
-        <v>50</v>
+        <v>227</v>
       </c>
       <c r="D304" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="E304" t="s">
+        <v>93</v>
+      </c>
+      <c r="F304">
+        <v>2018</v>
+      </c>
+      <c r="G304" t="s">
+        <v>61</v>
+      </c>
+      <c r="H304" t="s">
+        <v>8</v>
+      </c>
+      <c r="I304">
+        <v>1.75</v>
+      </c>
+      <c r="J304" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>75</v>
+        <v>230</v>
+      </c>
+      <c r="B305" t="s">
+        <v>95</v>
       </c>
       <c r="C305" t="s">
-        <v>50</v>
+        <v>229</v>
       </c>
       <c r="D305" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="E305" t="s">
+        <v>93</v>
+      </c>
+      <c r="F305">
+        <v>2018</v>
+      </c>
+      <c r="G305" t="s">
+        <v>7</v>
+      </c>
+      <c r="H305" t="s">
+        <v>96</v>
+      </c>
+      <c r="I305">
+        <v>46</v>
+      </c>
+      <c r="J305" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>20</v>
+        <v>150</v>
+      </c>
+      <c r="B306" t="s">
+        <v>9</v>
       </c>
       <c r="C306" t="s">
-        <v>50</v>
+        <v>231</v>
       </c>
       <c r="D306" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
-        <v>163</v>
-      </c>
-      <c r="C307" t="s">
-        <v>50</v>
-      </c>
-      <c r="D307" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
-        <v>77</v>
-      </c>
-      <c r="C308" t="s">
-        <v>50</v>
-      </c>
-      <c r="D308" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
-        <v>208</v>
-      </c>
-      <c r="B309" t="s">
-        <v>9</v>
-      </c>
-      <c r="C309" t="s">
-        <v>50</v>
-      </c>
-      <c r="D309" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
-        <v>102</v>
-      </c>
-      <c r="B310" t="s">
-        <v>9</v>
-      </c>
-      <c r="C310" t="s">
-        <v>50</v>
-      </c>
-      <c r="D310" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
-        <v>132</v>
-      </c>
-      <c r="B311" t="s">
-        <v>9</v>
-      </c>
-      <c r="C311" t="s">
-        <v>50</v>
-      </c>
-      <c r="D311" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
-        <v>64</v>
-      </c>
-      <c r="B312" t="s">
-        <v>9</v>
-      </c>
-      <c r="C312" t="s">
-        <v>50</v>
-      </c>
-      <c r="D312" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
-        <v>6</v>
-      </c>
-      <c r="B313" t="s">
-        <v>9</v>
-      </c>
-      <c r="C313" t="s">
-        <v>50</v>
-      </c>
-      <c r="D313" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
-        <v>209</v>
-      </c>
-      <c r="B314" t="s">
-        <v>9</v>
-      </c>
-      <c r="C314" t="s">
-        <v>50</v>
-      </c>
-      <c r="D314" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
-        <v>137</v>
-      </c>
-      <c r="B315" t="s">
-        <v>9</v>
-      </c>
-      <c r="C315" t="s">
-        <v>50</v>
-      </c>
-      <c r="D315" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
-        <v>138</v>
-      </c>
-      <c r="B316" t="s">
-        <v>9</v>
-      </c>
-      <c r="C316" t="s">
-        <v>50</v>
-      </c>
-      <c r="D316" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
-        <v>23</v>
-      </c>
-      <c r="B317" t="s">
-        <v>9</v>
-      </c>
-      <c r="C317" t="s">
-        <v>50</v>
-      </c>
-      <c r="D317" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
-        <v>139</v>
-      </c>
-      <c r="B318" t="s">
-        <v>9</v>
-      </c>
-      <c r="C318" t="s">
-        <v>50</v>
-      </c>
-      <c r="D318" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
-        <v>210</v>
-      </c>
-      <c r="B319" t="s">
-        <v>9</v>
-      </c>
-      <c r="C319" t="s">
-        <v>50</v>
-      </c>
-      <c r="D319" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
-        <v>211</v>
-      </c>
-      <c r="B320" t="s">
-        <v>9</v>
-      </c>
-      <c r="C320" t="s">
-        <v>50</v>
-      </c>
-      <c r="D320" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
-        <v>65</v>
-      </c>
-      <c r="B321" t="s">
-        <v>9</v>
-      </c>
-      <c r="C321" t="s">
-        <v>50</v>
-      </c>
-      <c r="D321" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
-        <v>141</v>
-      </c>
-      <c r="B322" t="s">
-        <v>9</v>
-      </c>
-      <c r="C322" t="s">
-        <v>50</v>
-      </c>
-      <c r="D322" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
-        <v>25</v>
-      </c>
-      <c r="B323" t="s">
-        <v>9</v>
-      </c>
-      <c r="C323" t="s">
-        <v>50</v>
-      </c>
-      <c r="D323" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
-        <v>116</v>
-      </c>
-      <c r="B324" t="s">
-        <v>9</v>
-      </c>
-      <c r="C324" t="s">
-        <v>50</v>
-      </c>
-      <c r="D324" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
-        <v>15</v>
-      </c>
-      <c r="B325" t="s">
-        <v>9</v>
-      </c>
-      <c r="C325" t="s">
-        <v>50</v>
-      </c>
-      <c r="D325" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A326" t="s">
-        <v>14</v>
-      </c>
-      <c r="B326" t="s">
-        <v>9</v>
-      </c>
-      <c r="C326" t="s">
-        <v>50</v>
-      </c>
-      <c r="D326" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
-        <v>212</v>
-      </c>
-      <c r="B327" t="s">
-        <v>9</v>
-      </c>
-      <c r="C327" t="s">
-        <v>50</v>
-      </c>
-      <c r="D327" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
-        <v>22</v>
-      </c>
-      <c r="B328" t="s">
-        <v>9</v>
-      </c>
-      <c r="C328" t="s">
-        <v>50</v>
-      </c>
-      <c r="D328" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
-        <v>176</v>
-      </c>
-      <c r="B329" t="s">
-        <v>9</v>
-      </c>
-      <c r="C329" t="s">
-        <v>50</v>
-      </c>
-      <c r="D329" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
-        <v>175</v>
-      </c>
-      <c r="B330" t="s">
-        <v>9</v>
-      </c>
-      <c r="C330" t="s">
-        <v>50</v>
-      </c>
-      <c r="D330" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
-        <v>123</v>
-      </c>
-      <c r="B331" t="s">
-        <v>9</v>
-      </c>
-      <c r="C331" t="s">
-        <v>50</v>
-      </c>
-      <c r="D331" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
-        <v>21</v>
-      </c>
-      <c r="B332" t="s">
-        <v>9</v>
-      </c>
-      <c r="C332" t="s">
-        <v>50</v>
-      </c>
-      <c r="D332" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
-        <v>116</v>
-      </c>
-      <c r="B333" t="s">
-        <v>9</v>
-      </c>
-      <c r="C333" t="s">
-        <v>217</v>
-      </c>
-      <c r="D333" t="s">
-        <v>83</v>
-      </c>
-      <c r="E333" t="s">
-        <v>12</v>
-      </c>
-      <c r="F333" t="s">
-        <v>218</v>
-      </c>
-      <c r="G333" t="s">
-        <v>7</v>
-      </c>
-      <c r="H333" t="s">
+        <v>53</v>
+      </c>
+      <c r="E306" t="s">
+        <v>62</v>
+      </c>
+      <c r="F306">
+        <v>2017</v>
+      </c>
+      <c r="G306" t="s">
+        <v>7</v>
+      </c>
+      <c r="H306" t="s">
         <v>96</v>
       </c>
-      <c r="I333">
-        <v>62</v>
-      </c>
-      <c r="J333" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
-        <v>123</v>
-      </c>
-      <c r="B334" t="s">
-        <v>9</v>
-      </c>
-      <c r="C334" t="s">
-        <v>220</v>
-      </c>
-      <c r="D334" t="s">
-        <v>179</v>
-      </c>
-      <c r="E334" t="s">
-        <v>62</v>
-      </c>
-      <c r="F334">
-        <v>2018</v>
-      </c>
-      <c r="G334" t="s">
-        <v>7</v>
-      </c>
-      <c r="H334" t="s">
-        <v>96</v>
-      </c>
-      <c r="I334">
-        <v>42</v>
-      </c>
-      <c r="J334" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
-        <v>142</v>
-      </c>
-      <c r="B335" t="s">
-        <v>9</v>
-      </c>
-      <c r="C335" t="s">
-        <v>220</v>
-      </c>
-      <c r="D335" t="s">
-        <v>179</v>
-      </c>
-      <c r="E335" t="s">
-        <v>221</v>
-      </c>
-      <c r="F335">
-        <v>2015</v>
-      </c>
-      <c r="G335" t="s">
-        <v>7</v>
-      </c>
-      <c r="H335" t="s">
-        <v>96</v>
-      </c>
-      <c r="I335">
-        <v>20.5</v>
-      </c>
-      <c r="J335" t="s">
-        <v>0</v>
+      <c r="I306">
+        <v>11.25</v>
+      </c>
+      <c r="J306" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
